--- a/EST/HitoII.xlsx
+++ b/EST/HitoII.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zFiles\project\EST\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>CU01 - Consultar Clientes</t>
   </si>
@@ -312,13 +308,169 @@
   </si>
   <si>
     <t>CU15 - Consultar Zona de Reparto</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Repartidor</t>
+  </si>
+  <si>
+    <t>Zona de Reparto</t>
+  </si>
+  <si>
+    <t>Giro</t>
+  </si>
+  <si>
+    <t>Forma de Pago</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Horario de Reparto</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Estado Articulo</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>precio de articulo</t>
+  </si>
+  <si>
+    <t>asignacion horario</t>
+  </si>
+  <si>
+    <t>Estado de Cuenta</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Estado de resultado</t>
+  </si>
+  <si>
+    <t>Turnos</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Concepto de Pago</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Receta Base</t>
+  </si>
+  <si>
+    <t>Parametro de Produccion</t>
+  </si>
+  <si>
+    <t>variable de Produccion</t>
+  </si>
+  <si>
+    <t>Guia por Programacion</t>
+  </si>
+  <si>
+    <t>Guia por cliente</t>
+  </si>
+  <si>
+    <t>Guias emitidas</t>
+  </si>
+  <si>
+    <t>Correlativo de guias</t>
+  </si>
+  <si>
+    <t>planilla de reparto</t>
+  </si>
+  <si>
+    <t>devoluciones confirmar</t>
+  </si>
+  <si>
+    <t>cuentas corrientes</t>
+  </si>
+  <si>
+    <t>abonos</t>
+  </si>
+  <si>
+    <t>Cuenta interna</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Vale de cobranza</t>
+  </si>
+  <si>
+    <t>Vale de cobranza por cliente</t>
+  </si>
+  <si>
+    <t>historico cuenta corriente</t>
+  </si>
+  <si>
+    <t>estadistica despacho</t>
+  </si>
+  <si>
+    <t>cobranza resumida</t>
+  </si>
+  <si>
+    <t>cuenta interna</t>
+  </si>
+  <si>
+    <t>tarj. Mov. Mercaderia</t>
+  </si>
+  <si>
+    <t>informe articulo inventario</t>
+  </si>
+  <si>
+    <t>informe rendimiento</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Estado resultado</t>
+  </si>
+  <si>
+    <t>Reporte por modulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hito 1 </t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Bitacora</t>
+  </si>
+  <si>
+    <t>Desarrollo Emision DTE SII</t>
+  </si>
+  <si>
+    <t>Certificacion DTE por SII</t>
+  </si>
+  <si>
+    <t>Abono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,47 +773,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="79.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -669,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -677,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -685,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -693,7 +845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -701,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -709,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -717,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -725,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -733,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -741,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -749,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -757,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -765,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -773,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -781,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -789,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -797,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -805,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -813,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -821,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -829,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -837,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -845,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -853,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -861,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -869,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -877,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -885,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -893,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>81</v>
       </c>
@@ -901,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -909,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -917,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>83</v>
       </c>
@@ -925,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>32</v>
       </c>
@@ -933,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>84</v>
       </c>
@@ -941,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -949,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -957,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
         <v>35</v>
       </c>
@@ -965,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>36</v>
       </c>
@@ -973,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
         <v>37</v>
       </c>
@@ -981,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -989,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -997,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>39</v>
       </c>
@@ -1005,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -1013,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>87</v>
       </c>
@@ -1021,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>88</v>
       </c>
@@ -1029,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" t="s">
         <v>93</v>
       </c>
@@ -1045,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>92</v>
       </c>
@@ -1053,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>91</v>
       </c>
@@ -1061,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" t="s">
         <v>90</v>
       </c>
@@ -1069,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>89</v>
       </c>
@@ -1077,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" t="s">
         <v>41</v>
       </c>
@@ -1085,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>42</v>
       </c>
@@ -1093,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>44</v>
       </c>
@@ -1109,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>45</v>
       </c>
@@ -1117,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" t="s">
         <v>46</v>
       </c>
@@ -1133,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" t="s">
         <v>49</v>
       </c>
@@ -1141,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" t="s">
         <v>50</v>
       </c>
@@ -1149,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" t="s">
         <v>51</v>
       </c>
@@ -1157,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" t="s">
         <v>52</v>
       </c>
@@ -1165,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" t="s">
         <v>53</v>
       </c>
@@ -1173,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" t="s">
         <v>54</v>
       </c>
@@ -1181,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" t="s">
         <v>56</v>
       </c>
@@ -1197,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" t="s">
         <v>57</v>
       </c>
@@ -1213,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -1221,7 +1373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" t="s">
         <v>68</v>
       </c>
@@ -1229,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78" t="s">
         <v>67</v>
       </c>
@@ -1237,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79" t="s">
         <v>66</v>
       </c>
@@ -1245,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80" t="s">
         <v>65</v>
       </c>
@@ -1253,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3">
       <c r="B81" t="s">
         <v>64</v>
       </c>
@@ -1261,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3">
       <c r="B82" t="s">
         <v>63</v>
       </c>
@@ -1269,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>62</v>
       </c>
@@ -1277,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3">
       <c r="B84" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3">
       <c r="B85" t="s">
         <v>60</v>
       </c>
@@ -1293,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3">
       <c r="B86" t="s">
         <v>70</v>
       </c>
@@ -1301,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3">
       <c r="B87" t="s">
         <v>58</v>
       </c>
@@ -1309,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3">
       <c r="B88" t="s">
         <v>59</v>
       </c>
@@ -1317,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3">
       <c r="B89" t="s">
         <v>71</v>
       </c>
@@ -1325,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3">
       <c r="B90" t="s">
         <v>72</v>
       </c>
@@ -1333,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3">
       <c r="B91" t="s">
         <v>73</v>
       </c>
@@ -1341,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3">
       <c r="B92" t="s">
         <v>74</v>
       </c>
@@ -1349,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3">
       <c r="B93" t="s">
         <v>75</v>
       </c>
@@ -1357,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3">
       <c r="B94" t="s">
         <v>76</v>
       </c>
@@ -1365,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3">
       <c r="B95" t="s">
         <v>77</v>
       </c>
@@ -1373,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3">
       <c r="B96" t="s">
         <v>78</v>
       </c>
@@ -1381,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3">
       <c r="B97" t="s">
         <v>79</v>
       </c>
@@ -1389,12 +1541,317 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3">
       <c r="B98" t="s">
         <v>80</v>
       </c>
       <c r="C98">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D2:D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
